--- a/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
+++ b/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/indst/pifurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pifurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEC8B82-A360-3948-804B-4BA141131BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60699453-3D2A-FA45-9B7A-B7720CE96B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="27560" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
